--- a/migration_results.xlsx
+++ b/migration_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
   <si>
     <t>Asset ID</t>
   </si>
@@ -597,6 +597,30 @@
   <si>
     <t>anzx-lighthouse</t>
   </si>
+  <si>
+    <t>checkmarx</t>
+  </si>
+  <si>
+    <t>cfaas</t>
+  </si>
+  <si>
+    <t>cosmos</t>
+  </si>
+  <si>
+    <t>buf</t>
+  </si>
+  <si>
+    <t>connectid-workbench</t>
+  </si>
+  <si>
+    <t>branch-io</t>
+  </si>
+  <si>
+    <t>calabrio-workforce-management</t>
+  </si>
+  <si>
+    <t>cosmos-calamari</t>
+  </si>
 </sst>
 </file>
 
@@ -89860,6 +89884,9582 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6354">
+      <c r="A6354" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6354" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6354" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6354" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6355">
+      <c r="A6355" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6355" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6355" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6355" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6356">
+      <c r="A6356" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6356" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6356" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6356" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6357">
+      <c r="A6357" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6357" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6357" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6357" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6358">
+      <c r="A6358" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6358" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6358" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6358" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6359">
+      <c r="A6359" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6359" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6359" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6359" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6360">
+      <c r="A6360" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6360" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6360" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6360" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6361">
+      <c r="A6361" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6361" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6361" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6361" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6362">
+      <c r="A6362" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6362" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6362" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6362" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6363">
+      <c r="A6363" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6363" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6363" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6363" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6364">
+      <c r="A6364" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6364" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6364" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6364" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6365">
+      <c r="A6365" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6365" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6365" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6365" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6366">
+      <c r="A6366" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6366" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6366" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6366" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6367">
+      <c r="A6367" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6367" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6367" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6367" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6368">
+      <c r="A6368" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6368" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6368" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6368" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6369">
+      <c r="A6369" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6369" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6369" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6369" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6370">
+      <c r="A6370" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6370" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6370" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6370" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6371">
+      <c r="A6371" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6371" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6371" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6371" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6372">
+      <c r="A6372" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6372" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6372" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6372" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6373">
+      <c r="A6373" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6373" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6373" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6373" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6374">
+      <c r="A6374" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6374" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6374" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6374" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6375">
+      <c r="A6375" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6375" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6375" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6375" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6376">
+      <c r="A6376" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6376" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6376" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6376" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6377">
+      <c r="A6377" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6377" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6377" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6377" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6378">
+      <c r="A6378" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6378" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6378" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6378" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6379">
+      <c r="A6379" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6379" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6379" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6379" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6380">
+      <c r="A6380" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6380" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6380" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6380" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6381">
+      <c r="A6381" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6381" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6381" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6381" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6382">
+      <c r="A6382" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6382" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6382" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6382" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6383">
+      <c r="A6383" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6383" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6383" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6383" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6384">
+      <c r="A6384" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6384" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6384" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6384" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6385">
+      <c r="A6385" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6385" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6385" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6385" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6386">
+      <c r="A6386" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6386" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6386" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6386" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6387">
+      <c r="A6387" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6387" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6387" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6387" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6388">
+      <c r="A6388" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6388" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6388" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6388" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6389">
+      <c r="A6389" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6389" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6389" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6389" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6390">
+      <c r="A6390" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6390" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6390" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6390" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6391">
+      <c r="A6391" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6391" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6391" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6391" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6392">
+      <c r="A6392" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6392" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6392" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6392" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6393">
+      <c r="A6393" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6393" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6393" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6393" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6394">
+      <c r="A6394" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6394" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6394" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6394" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6395">
+      <c r="A6395" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6395" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6395" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6395" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6396">
+      <c r="A6396" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6396" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6396" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6396" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6397">
+      <c r="A6397" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6397" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6397" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6397" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6398">
+      <c r="A6398" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6398" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6398" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6398" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6399">
+      <c r="A6399" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6399" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6399" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6399" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6400">
+      <c r="A6400" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6400" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6400" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6400" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6401">
+      <c r="A6401" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6401" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6401" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6401" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6402">
+      <c r="A6402" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6402" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6402" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6402" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6403">
+      <c r="A6403" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6403" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6403" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6403" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6404">
+      <c r="A6404" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6404" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6404" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6404" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6405">
+      <c r="A6405" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6405" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6405" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6405" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6406">
+      <c r="A6406" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6406" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6406" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6406" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6407">
+      <c r="A6407" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6407" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6407" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6407" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6408">
+      <c r="A6408" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6408" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6408" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6408" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6409">
+      <c r="A6409" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6409" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6409" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6409" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6410">
+      <c r="A6410" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6410" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6410" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6410" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6411">
+      <c r="A6411" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6411" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6411" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6411" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6412">
+      <c r="A6412" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6412" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6412" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6412" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6413">
+      <c r="A6413" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6413" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6413" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6413" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6414">
+      <c r="A6414" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6414" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6414" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6414" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6415">
+      <c r="A6415" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6415" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6415" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6415" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6416">
+      <c r="A6416" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6416" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6416" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6416" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6417">
+      <c r="A6417" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6417" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6417" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6417" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6418">
+      <c r="A6418" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6418" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6418" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6418" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6419">
+      <c r="A6419" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6419" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6419" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6419" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6420">
+      <c r="A6420" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6420" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6420" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6420" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6421">
+      <c r="A6421" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6421" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6421" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6421" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6422">
+      <c r="A6422" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6422" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6422" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6422" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6423">
+      <c r="A6423" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6423" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6423" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6423" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6424">
+      <c r="A6424" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6424" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6424" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6424" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6425">
+      <c r="A6425" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6425" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6425" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6425" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6426">
+      <c r="A6426" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6426" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6426" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6426" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6427">
+      <c r="A6427" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6427" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6427" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6427" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6428">
+      <c r="A6428" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6428" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6428" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6428" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6429">
+      <c r="A6429" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6429" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6429" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6429" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6430">
+      <c r="A6430" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6430" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6430" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6430" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6431">
+      <c r="A6431" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6431" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6431" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6431" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6432">
+      <c r="A6432" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6432" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6432" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6432" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6433">
+      <c r="A6433" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6433" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6433" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6433" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6434">
+      <c r="A6434" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6434" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6434" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6434" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6435">
+      <c r="A6435" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6435" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6435" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6435" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6436">
+      <c r="A6436" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6436" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6436" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6436" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6437">
+      <c r="A6437" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6437" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6437" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6437" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6438">
+      <c r="A6438" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6438" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6438" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6438" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6439">
+      <c r="A6439" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6439" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6439" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6439" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6440">
+      <c r="A6440" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6440" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6440" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6440" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6441">
+      <c r="A6441" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6441" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6441" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6441" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6442">
+      <c r="A6442" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6442" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6442" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6442" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6443">
+      <c r="A6443" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6443" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6443" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6443" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6444">
+      <c r="A6444" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6444" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6444" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6444" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6445">
+      <c r="A6445" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6445" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6445" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6445" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6446">
+      <c r="A6446" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6446" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6446" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6446" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6447">
+      <c r="A6447" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6447" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6447" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6447" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6448">
+      <c r="A6448" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6448" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6448" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6448" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6449">
+      <c r="A6449" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6449" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6449" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6449" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6450">
+      <c r="A6450" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6450" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6450" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6450" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6451">
+      <c r="A6451" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6451" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6451" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6451" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6452">
+      <c r="A6452" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6452" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6452" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6452" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6453">
+      <c r="A6453" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6453" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6453" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6453" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6454">
+      <c r="A6454" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6454" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6454" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6454" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6455">
+      <c r="A6455" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6455" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6455" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6455" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6456">
+      <c r="A6456" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6456" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6456" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6456" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6457">
+      <c r="A6457" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6457" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6457" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6457" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6458">
+      <c r="A6458" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6458" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6458" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6458" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6459">
+      <c r="A6459" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6459" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6459" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6459" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6460">
+      <c r="A6460" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6460" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6460" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6460" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6461">
+      <c r="A6461" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6461" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6461" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6461" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6462">
+      <c r="A6462" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6462" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6462" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6462" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6463">
+      <c r="A6463" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6463" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6463" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6463" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6464">
+      <c r="A6464" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6464" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6464" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6464" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6465">
+      <c r="A6465" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6465" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6465" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6465" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6466">
+      <c r="A6466" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6466" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6466" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6466" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6467">
+      <c r="A6467" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6467" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6467" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6467" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6468">
+      <c r="A6468" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6468" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6468" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6468" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6469">
+      <c r="A6469" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6469" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6469" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6469" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6470">
+      <c r="A6470" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6470" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6470" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6470" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6471">
+      <c r="A6471" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6471" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6471" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6471" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6472">
+      <c r="A6472" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6472" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6472" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6472" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6473">
+      <c r="A6473" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6473" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6473" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6473" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6474">
+      <c r="A6474" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6474" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6474" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6474" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6475">
+      <c r="A6475" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6475" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6475" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6475" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6476">
+      <c r="A6476" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6476" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6476" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6476" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6477">
+      <c r="A6477" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6477" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6477" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6477" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6478">
+      <c r="A6478" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6478" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6478" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6478" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6479">
+      <c r="A6479" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6479" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6479" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6479" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6480">
+      <c r="A6480" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6480" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6480" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6480" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6481">
+      <c r="A6481" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6481" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6481" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6481" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6482">
+      <c r="A6482" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6482" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6482" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6482" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6483">
+      <c r="A6483" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6483" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6483" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6483" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6484">
+      <c r="A6484" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6484" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6484" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6484" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6485">
+      <c r="A6485" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6485" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6485" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6485" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6486">
+      <c r="A6486" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6486" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6486" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6486" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6487">
+      <c r="A6487" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6487" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6487" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6487" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6488">
+      <c r="A6488" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6488" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6488" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6488" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6489">
+      <c r="A6489" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6489" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6489" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6489" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6490">
+      <c r="A6490" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6490" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6490" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6490" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6491">
+      <c r="A6491" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6491" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6491" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6491" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6492">
+      <c r="A6492" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6492" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6492" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6492" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6493">
+      <c r="A6493" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6493" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6493" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6493" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6494">
+      <c r="A6494" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6494" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6494" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6494" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6495">
+      <c r="A6495" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6495" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6495" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6495" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6496">
+      <c r="A6496" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6496" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6496" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6496" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6497">
+      <c r="A6497" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6497" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6497" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6497" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6498">
+      <c r="A6498" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6498" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6498" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6498" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6499">
+      <c r="A6499" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6499" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6499" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6499" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6500">
+      <c r="A6500" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6500" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6500" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6500" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6501">
+      <c r="A6501" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6501" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6501" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6501" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6502">
+      <c r="A6502" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6502" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6502" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6502" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6503">
+      <c r="A6503" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6503" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6503" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6503" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6504">
+      <c r="A6504" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6504" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6504" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6504" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6505">
+      <c r="A6505" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6505" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6505" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6505" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6506">
+      <c r="A6506" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6506" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6506" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6506" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6507">
+      <c r="A6507" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6507" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6507" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6507" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6508">
+      <c r="A6508" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6508" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6508" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6508" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6509">
+      <c r="A6509" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6509" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6509" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6509" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6510">
+      <c r="A6510" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6510" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6510" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6510" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6511">
+      <c r="A6511" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6511" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6511" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6511" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6512">
+      <c r="A6512" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6512" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6512" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6512" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6513">
+      <c r="A6513" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6513" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6513" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6513" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6514">
+      <c r="A6514" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6514" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6514" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6514" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6515">
+      <c r="A6515" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6515" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6515" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6515" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6516">
+      <c r="A6516" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6516" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6516" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6516" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6517">
+      <c r="A6517" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6517" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6517" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6517" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6518">
+      <c r="A6518" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6518" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6518" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6518" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6519">
+      <c r="A6519" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6519" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6519" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6519" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6520">
+      <c r="A6520" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6520" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6520" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6520" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6521">
+      <c r="A6521" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6521" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6521" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6521" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6522">
+      <c r="A6522" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6522" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6522" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6522" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6523">
+      <c r="A6523" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6523" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6523" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6523" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6524">
+      <c r="A6524" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6524" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6524" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6524" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6525">
+      <c r="A6525" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6525" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6525" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6525" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6526">
+      <c r="A6526" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6526" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6526" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6526" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6527">
+      <c r="A6527" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6527" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6527" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6527" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6528">
+      <c r="A6528" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6528" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6528" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6528" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6529">
+      <c r="A6529" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6529" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6529" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6529" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6530">
+      <c r="A6530" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6530" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6530" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6530" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6531">
+      <c r="A6531" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6531" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6531" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6531" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6532">
+      <c r="A6532" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6532" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6532" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6532" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6533">
+      <c r="A6533" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6533" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6533" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6533" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6534">
+      <c r="A6534" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6534" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6534" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6534" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6535">
+      <c r="A6535" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6535" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6535" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6535" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6536">
+      <c r="A6536" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6536" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6536" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6536" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6537">
+      <c r="A6537" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6537" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6537" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6537" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6538">
+      <c r="A6538" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6538" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6538" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6538" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6539">
+      <c r="A6539" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6539" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6539" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6539" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6540">
+      <c r="A6540" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6540" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6540" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6540" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6541">
+      <c r="A6541" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6541" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6541" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6541" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6542">
+      <c r="A6542" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6542" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6542" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6542" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6543">
+      <c r="A6543" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6543" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6543" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6543" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6544">
+      <c r="A6544" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6544" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6544" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6544" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6545">
+      <c r="A6545" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6545" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6545" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6545" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6546">
+      <c r="A6546" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6546" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6546" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6546" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6547">
+      <c r="A6547" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6547" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6547" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6547" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6548">
+      <c r="A6548" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6548" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6548" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6548" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6549">
+      <c r="A6549" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6549" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6549" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6549" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6550">
+      <c r="A6550" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6550" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6550" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6550" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6551">
+      <c r="A6551" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6551" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6551" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6551" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6552">
+      <c r="A6552" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6552" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6552" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6552" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6553">
+      <c r="A6553" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6553" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6553" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6553" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6554">
+      <c r="A6554" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6554" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6554" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6554" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6555">
+      <c r="A6555" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6555" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6555" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6555" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6556">
+      <c r="A6556" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6556" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6556" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6556" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6557">
+      <c r="A6557" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6557" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6557" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6557" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6558">
+      <c r="A6558" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6558" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6558" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6558" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6559">
+      <c r="A6559" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6559" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6559" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6559" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6560">
+      <c r="A6560" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6560" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6560" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6560" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6561">
+      <c r="A6561" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6561" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6561" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6561" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6562">
+      <c r="A6562" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6562" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6562" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6562" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6563">
+      <c r="A6563" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6563" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6563" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6563" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6564">
+      <c r="A6564" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6564" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6564" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6564" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6565">
+      <c r="A6565" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6565" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6565" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6565" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6566">
+      <c r="A6566" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6566" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6566" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6566" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6567">
+      <c r="A6567" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6567" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6567" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6567" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6568">
+      <c r="A6568" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6568" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6568" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6568" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6569">
+      <c r="A6569" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6569" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6569" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6569" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6570">
+      <c r="A6570" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6570" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6570" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6570" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6571">
+      <c r="A6571" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6571" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6571" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6571" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6572">
+      <c r="A6572" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6572" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6572" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6572" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6573">
+      <c r="A6573" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6573" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6573" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6573" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6574">
+      <c r="A6574" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6574" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6574" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6574" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6575">
+      <c r="A6575" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6575" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6575" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6575" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6576">
+      <c r="A6576" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6576" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6576" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6576" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6577">
+      <c r="A6577" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6577" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6577" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6577" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6578">
+      <c r="A6578" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6578" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6578" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6578" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6579">
+      <c r="A6579" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6579" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6579" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6579" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6580">
+      <c r="A6580" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6580" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6580" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6580" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6581">
+      <c r="A6581" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6581" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6581" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6581" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6582">
+      <c r="A6582" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6582" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6582" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6582" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6583">
+      <c r="A6583" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6583" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6583" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6583" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6584">
+      <c r="A6584" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6584" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6584" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6584" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6585">
+      <c r="A6585" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6585" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6585" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6585" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6586">
+      <c r="A6586" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6586" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6586" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6586" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6587">
+      <c r="A6587" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6587" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6587" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6587" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6588">
+      <c r="A6588" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6588" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6588" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6588" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6589">
+      <c r="A6589" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6589" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6589" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6589" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6590">
+      <c r="A6590" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6590" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6590" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6590" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6591">
+      <c r="A6591" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6591" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6591" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6591" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6592">
+      <c r="A6592" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6592" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6592" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6592" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6593">
+      <c r="A6593" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6593" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6593" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6593" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6594">
+      <c r="A6594" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6594" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6594" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6594" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6595">
+      <c r="A6595" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6595" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6595" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6595" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6596">
+      <c r="A6596" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6596" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6596" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6596" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6597">
+      <c r="A6597" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6597" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6597" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6597" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6598">
+      <c r="A6598" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6598" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6598" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6598" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6599">
+      <c r="A6599" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6599" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6599" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6599" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6600">
+      <c r="A6600" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6600" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6600" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6600" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6601">
+      <c r="A6601" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6601" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6601" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6601" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6602">
+      <c r="A6602" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6602" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6602" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6602" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6603">
+      <c r="A6603" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6603" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6603" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6603" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6604">
+      <c r="A6604" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6604" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6604" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6604" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6605">
+      <c r="A6605" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6605" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6605" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6605" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6606">
+      <c r="A6606" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6606" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6606" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6606" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6607">
+      <c r="A6607" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6607" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6607" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6607" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6608">
+      <c r="A6608" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6608" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6608" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6608" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6609">
+      <c r="A6609" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6609" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6609" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6609" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6610">
+      <c r="A6610" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6610" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6610" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6610" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6611">
+      <c r="A6611" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6611" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6611" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6611" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6612">
+      <c r="A6612" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6612" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6612" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6612" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6613">
+      <c r="A6613" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6613" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6613" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6613" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6614">
+      <c r="A6614" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6614" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6614" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6614" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6615">
+      <c r="A6615" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6615" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6615" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6615" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6616">
+      <c r="A6616" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6616" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6616" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6616" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6617">
+      <c r="A6617" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6617" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6617" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6617" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6618">
+      <c r="A6618" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6618" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6618" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6618" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6619">
+      <c r="A6619" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6619" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6619" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6619" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6620">
+      <c r="A6620" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6620" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6620" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6620" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6621">
+      <c r="A6621" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6621" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6621" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6621" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6622">
+      <c r="A6622" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6622" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6622" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6622" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6623">
+      <c r="A6623" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6623" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6623" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6623" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6624">
+      <c r="A6624" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6624" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6624" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6624" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6625">
+      <c r="A6625" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6625" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6625" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6625" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6626">
+      <c r="A6626" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6626" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6626" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6626" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6627">
+      <c r="A6627" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6627" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6627" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6627" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6628">
+      <c r="A6628" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6628" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6628" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6628" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6629">
+      <c r="A6629" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6629" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6629" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6629" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6630">
+      <c r="A6630" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6630" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6630" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6630" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6631">
+      <c r="A6631" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6631" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6631" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6631" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6632">
+      <c r="A6632" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6632" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6632" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6632" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6633">
+      <c r="A6633" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6633" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6633" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6633" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6634">
+      <c r="A6634" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6634" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6634" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6634" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6635">
+      <c r="A6635" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6635" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6635" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6635" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6636">
+      <c r="A6636" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6636" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6636" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6636" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6637">
+      <c r="A6637" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6637" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6637" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6637" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6638">
+      <c r="A6638" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6638" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6638" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6638" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6639">
+      <c r="A6639" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6639" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6639" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6639" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6640">
+      <c r="A6640" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6640" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6640" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6640" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6641">
+      <c r="A6641" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6641" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6641" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6641" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6642">
+      <c r="A6642" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6642" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6642" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6642" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6643">
+      <c r="A6643" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6643" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6643" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6643" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6644">
+      <c r="A6644" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6644" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6644" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6644" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6645">
+      <c r="A6645" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6645" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6645" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6645" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6646">
+      <c r="A6646" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6646" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6646" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6646" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6647">
+      <c r="A6647" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6647" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6647" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6647" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6648">
+      <c r="A6648" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6648" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6648" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6648" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6649">
+      <c r="A6649" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6649" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6649" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6649" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6650">
+      <c r="A6650" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6650" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6650" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6650" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6651">
+      <c r="A6651" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6651" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6651" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6651" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6652">
+      <c r="A6652" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6652" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6652" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6652" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6653">
+      <c r="A6653" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6653" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6653" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6653" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6654">
+      <c r="A6654" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6654" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6654" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6654" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6655">
+      <c r="A6655" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6655" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6655" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6655" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6656">
+      <c r="A6656" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6656" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6656" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6656" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6657">
+      <c r="A6657" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6657" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6657" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6657" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6658">
+      <c r="A6658" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6658" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6658" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6658" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6659">
+      <c r="A6659" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6659" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6659" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6659" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6660">
+      <c r="A6660" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6660" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6660" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6660" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6661">
+      <c r="A6661" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6661" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6661" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6661" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6662">
+      <c r="A6662" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6662" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6662" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6662" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6663">
+      <c r="A6663" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6663" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6663" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6663" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6664">
+      <c r="A6664" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6664" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6664" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6664" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6665">
+      <c r="A6665" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6665" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6665" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6665" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6666">
+      <c r="A6666" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6666" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6666" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6666" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6667">
+      <c r="A6667" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6667" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6667" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6667" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6668">
+      <c r="A6668" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6668" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6668" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6668" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6669">
+      <c r="A6669" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6669" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6669" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6669" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6670">
+      <c r="A6670" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6670" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6670" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6670" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6671">
+      <c r="A6671" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6671" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6671" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6671" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6672">
+      <c r="A6672" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6672" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6672" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6672" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6673">
+      <c r="A6673" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6673" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6673" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6673" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6674">
+      <c r="A6674" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6674" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6674" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6674" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6675">
+      <c r="A6675" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6675" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6675" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6675" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6676">
+      <c r="A6676" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6676" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6676" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6676" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6677">
+      <c r="A6677" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6677" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6677" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6677" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6678">
+      <c r="A6678" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6678" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6678" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6678" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6679">
+      <c r="A6679" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6679" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6679" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6679" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6680">
+      <c r="A6680" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6680" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6680" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6680" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6681">
+      <c r="A6681" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6681" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6681" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6681" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6682">
+      <c r="A6682" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6682" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6682" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6682" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6683">
+      <c r="A6683" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6683" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6683" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6683" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6684">
+      <c r="A6684" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6684" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6684" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6684" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6685">
+      <c r="A6685" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6685" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6685" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6685" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6686">
+      <c r="A6686" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6686" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6686" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6686" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6687">
+      <c r="A6687" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6687" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6687" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6687" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6688">
+      <c r="A6688" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6688" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6688" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6688" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6689">
+      <c r="A6689" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6689" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6689" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6689" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6690">
+      <c r="A6690" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6690" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6690" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6690" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6691">
+      <c r="A6691" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6691" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6691" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6691" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6692">
+      <c r="A6692" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6692" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6692" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6692" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6693">
+      <c r="A6693" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6693" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6693" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6693" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6694">
+      <c r="A6694" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6694" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6694" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6694" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6695">
+      <c r="A6695" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6695" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6695" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6695" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6696">
+      <c r="A6696" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6696" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6696" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6696" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6697">
+      <c r="A6697" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6697" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6697" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6697" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6698">
+      <c r="A6698" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6698" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6698" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6698" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6699">
+      <c r="A6699" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6699" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6699" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6699" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6700">
+      <c r="A6700" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6700" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6700" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6700" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6701">
+      <c r="A6701" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6701" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6701" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6701" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6702">
+      <c r="A6702" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6702" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6702" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6702" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6703">
+      <c r="A6703" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6703" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6703" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6703" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6704">
+      <c r="A6704" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6704" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6704" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6704" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6705">
+      <c r="A6705" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6705" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6705" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6705" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6706">
+      <c r="A6706" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6706" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6706" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6706" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6707">
+      <c r="A6707" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6707" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6707" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6707" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6708">
+      <c r="A6708" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6708" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6708" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6708" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6709">
+      <c r="A6709" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6709" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6709" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6709" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6710">
+      <c r="A6710" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6710" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6710" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6710" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6711">
+      <c r="A6711" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6711" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6711" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6711" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6712">
+      <c r="A6712" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6712" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6712" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6712" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6713">
+      <c r="A6713" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6713" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6713" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6713" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6714">
+      <c r="A6714" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6714" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6714" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6714" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6715">
+      <c r="A6715" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6715" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6715" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6715" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6716">
+      <c r="A6716" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6716" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6716" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6716" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6717">
+      <c r="A6717" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6717" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6717" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6717" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6718">
+      <c r="A6718" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6718" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6718" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6718" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6719">
+      <c r="A6719" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6719" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6719" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6719" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6720">
+      <c r="A6720" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6720" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6720" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6720" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6721">
+      <c r="A6721" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6721" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6721" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6721" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6722">
+      <c r="A6722" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6722" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6722" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6722" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6723">
+      <c r="A6723" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6723" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6723" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6723" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6724">
+      <c r="A6724" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6724" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6724" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6724" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6725">
+      <c r="A6725" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6725" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6725" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6725" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6726">
+      <c r="A6726" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6726" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6726" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6726" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6727">
+      <c r="A6727" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6727" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6727" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6727" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6728">
+      <c r="A6728" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6728" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6728" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6728" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6729">
+      <c r="A6729" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6729" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6729" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6729" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6730">
+      <c r="A6730" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6730" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6730" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6730" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6731">
+      <c r="A6731" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6731" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6731" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6731" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6732">
+      <c r="A6732" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6732" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6732" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6732" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6733">
+      <c r="A6733" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6733" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6733" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6733" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6734">
+      <c r="A6734" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6734" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6734" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6734" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6735">
+      <c r="A6735" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6735" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6735" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6735" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6736">
+      <c r="A6736" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6736" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6736" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6736" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6737">
+      <c r="A6737" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6737" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6737" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6737" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6738">
+      <c r="A6738" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6738" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6738" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6738" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6739">
+      <c r="A6739" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6739" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6739" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6739" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6740">
+      <c r="A6740" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6740" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6740" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6740" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6741">
+      <c r="A6741" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6741" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6741" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6741" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6742">
+      <c r="A6742" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6742" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6742" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6742" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6743">
+      <c r="A6743" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6743" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6743" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6743" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6744">
+      <c r="A6744" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6744" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6744" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6744" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6745">
+      <c r="A6745" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6745" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6745" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6745" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6746">
+      <c r="A6746" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6746" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6746" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6746" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6747">
+      <c r="A6747" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6747" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6747" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6747" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6748">
+      <c r="A6748" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6748" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6748" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6748" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6749">
+      <c r="A6749" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6749" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6749" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6749" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6750">
+      <c r="A6750" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6750" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6750" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6750" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6751">
+      <c r="A6751" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6751" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6751" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6751" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6752">
+      <c r="A6752" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6752" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6752" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6752" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6753">
+      <c r="A6753" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6753" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6753" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6753" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6754">
+      <c r="A6754" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6754" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6754" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6754" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6755">
+      <c r="A6755" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6755" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6755" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6755" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6756">
+      <c r="A6756" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6756" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6756" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6756" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6757">
+      <c r="A6757" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6757" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6757" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6757" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6758">
+      <c r="A6758" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6758" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6758" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6758" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6759">
+      <c r="A6759" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6759" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6759" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6759" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6760">
+      <c r="A6760" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6760" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6760" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6760" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6761">
+      <c r="A6761" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6761" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6761" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6761" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6762">
+      <c r="A6762" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6762" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6762" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6762" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6763">
+      <c r="A6763" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6763" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6763" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6763" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6764">
+      <c r="A6764" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6764" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6764" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6764" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6765">
+      <c r="A6765" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6765" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6765" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6765" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6766">
+      <c r="A6766" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6766" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6766" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6766" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6767">
+      <c r="A6767" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6767" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6767" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6767" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6768">
+      <c r="A6768" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6768" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6768" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6768" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6769">
+      <c r="A6769" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6769" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6769" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6769" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6770">
+      <c r="A6770" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6770" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6770" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6770" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6771">
+      <c r="A6771" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6771" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6771" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6771" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6772">
+      <c r="A6772" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6772" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6772" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6772" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6773">
+      <c r="A6773" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6773" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6773" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6773" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6774">
+      <c r="A6774" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6774" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6774" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6774" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6775">
+      <c r="A6775" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6775" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6775" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6775" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6776">
+      <c r="A6776" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6776" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6776" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6776" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6777">
+      <c r="A6777" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6777" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6777" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6777" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6778">
+      <c r="A6778" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6778" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6778" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6778" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6779">
+      <c r="A6779" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6779" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6779" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6779" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6780">
+      <c r="A6780" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6780" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6780" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6780" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6781">
+      <c r="A6781" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6781" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6781" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6781" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6782">
+      <c r="A6782" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6782" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6782" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6782" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6783">
+      <c r="A6783" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6783" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6783" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6783" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6784">
+      <c r="A6784" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6784" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6784" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6784" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6785">
+      <c r="A6785" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6785" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6785" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6785" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6786">
+      <c r="A6786" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6786" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6786" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6786" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6787">
+      <c r="A6787" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6787" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6787" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6787" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6788">
+      <c r="A6788" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6788" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6788" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6788" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6789">
+      <c r="A6789" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6789" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6789" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6789" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6790">
+      <c r="A6790" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6790" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6790" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6790" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6791">
+      <c r="A6791" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6791" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6791" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6791" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6792">
+      <c r="A6792" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6792" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6792" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6792" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6793">
+      <c r="A6793" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6793" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6793" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6793" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6794">
+      <c r="A6794" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6794" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6794" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6794" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6795">
+      <c r="A6795" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6795" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6795" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6795" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6796">
+      <c r="A6796" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6796" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6796" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6796" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6797">
+      <c r="A6797" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6797" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6797" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6797" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6798">
+      <c r="A6798" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6798" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6798" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6798" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6799">
+      <c r="A6799" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6799" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6799" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6799" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6800">
+      <c r="A6800" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6800" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6800" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6800" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6801">
+      <c r="A6801" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6801" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6801" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6801" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6802">
+      <c r="A6802" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6802" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6802" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6802" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6803">
+      <c r="A6803" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6803" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6803" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6803" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6804">
+      <c r="A6804" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6804" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6804" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6804" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6805">
+      <c r="A6805" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6805" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6805" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6805" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6806">
+      <c r="A6806" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6806" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6806" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6806" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6807">
+      <c r="A6807" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6807" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6807" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6807" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6808">
+      <c r="A6808" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6808" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6808" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6808" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6809">
+      <c r="A6809" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6809" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6809" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6809" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6810">
+      <c r="A6810" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6810" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6810" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6810" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6811">
+      <c r="A6811" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6811" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6811" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6811" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6812">
+      <c r="A6812" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6812" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6812" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6812" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6813">
+      <c r="A6813" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6813" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6813" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6813" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6814">
+      <c r="A6814" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6814" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6814" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6814" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6815">
+      <c r="A6815" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6815" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6815" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6815" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6816">
+      <c r="A6816" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6816" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6816" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6816" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6817">
+      <c r="A6817" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6817" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6817" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6817" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6818">
+      <c r="A6818" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6818" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6818" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6818" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6819">
+      <c r="A6819" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6819" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6819" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6819" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6820">
+      <c r="A6820" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6820" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6820" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6820" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6821">
+      <c r="A6821" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6821" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6821" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6821" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6822">
+      <c r="A6822" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6822" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6822" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6822" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6823">
+      <c r="A6823" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6823" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6823" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6823" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6824">
+      <c r="A6824" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6824" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6824" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6824" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6825">
+      <c r="A6825" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6825" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6825" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6825" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6826">
+      <c r="A6826" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6826" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6826" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6826" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6827">
+      <c r="A6827" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6827" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6827" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6827" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6828">
+      <c r="A6828" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6828" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6828" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6828" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6829">
+      <c r="A6829" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6829" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6829" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6829" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6830">
+      <c r="A6830" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6830" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6830" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6830" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6831">
+      <c r="A6831" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6831" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6831" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6831" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6832">
+      <c r="A6832" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6832" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6832" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6832" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6833">
+      <c r="A6833" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6833" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6833" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6833" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6834">
+      <c r="A6834" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6834" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6834" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6834" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6835">
+      <c r="A6835" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6835" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6835" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6835" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6836">
+      <c r="A6836" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6836" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6836" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6836" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6837">
+      <c r="A6837" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6837" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6837" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6837" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6838">
+      <c r="A6838" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6838" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6838" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6838" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6839">
+      <c r="A6839" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6839" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6839" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6839" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6840">
+      <c r="A6840" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6840" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6840" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6840" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6841">
+      <c r="A6841" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6841" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6841" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6841" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6842">
+      <c r="A6842" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6842" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6842" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6842" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6843">
+      <c r="A6843" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6843" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6843" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6843" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6844">
+      <c r="A6844" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6844" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6844" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6844" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6845">
+      <c r="A6845" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6845" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6845" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6845" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6846">
+      <c r="A6846" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6846" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6846" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6846" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6847">
+      <c r="A6847" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6847" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6847" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6847" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6848">
+      <c r="A6848" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6848" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6848" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6848" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6849">
+      <c r="A6849" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6849" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6849" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6849" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6850">
+      <c r="A6850" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6850" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6850" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6850" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6851">
+      <c r="A6851" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6851" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6851" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6851" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6852">
+      <c r="A6852" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6852" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6852" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6852" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6853">
+      <c r="A6853" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6853" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6853" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6853" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6854">
+      <c r="A6854" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6854" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6854" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6854" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6855">
+      <c r="A6855" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6855" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6855" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6855" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6856">
+      <c r="A6856" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6856" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6856" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6856" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6857">
+      <c r="A6857" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6857" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6857" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6857" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6858">
+      <c r="A6858" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6858" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6858" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6858" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6859">
+      <c r="A6859" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6859" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6859" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6859" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6860">
+      <c r="A6860" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6860" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6860" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6860" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6861">
+      <c r="A6861" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6861" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6861" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6861" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6862">
+      <c r="A6862" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6862" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6862" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6862" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6863">
+      <c r="A6863" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6863" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6863" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6863" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6864">
+      <c r="A6864" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6864" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6864" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6864" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6865">
+      <c r="A6865" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6865" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6865" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6865" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6866">
+      <c r="A6866" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6866" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6866" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6866" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6867">
+      <c r="A6867" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6867" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6867" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6867" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6868">
+      <c r="A6868" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6868" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6868" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6868" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6869">
+      <c r="A6869" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6869" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6869" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6869" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6870">
+      <c r="A6870" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6870" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6870" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6870" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6871">
+      <c r="A6871" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6871" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6871" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6871" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6872">
+      <c r="A6872" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6872" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6872" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6872" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6873">
+      <c r="A6873" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6873" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6873" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6873" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6874">
+      <c r="A6874" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6874" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6874" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6874" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6875">
+      <c r="A6875" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6875" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6875" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6875" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6876">
+      <c r="A6876" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6876" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6876" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6876" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6877">
+      <c r="A6877" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6877" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6877" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6877" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6878">
+      <c r="A6878" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6878" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6878" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6878" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6879">
+      <c r="A6879" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6879" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6879" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6879" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6880">
+      <c r="A6880" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6880" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6880" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6880" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6881">
+      <c r="A6881" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6881" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6881" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6881" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6882">
+      <c r="A6882" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6882" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6882" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6882" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6883">
+      <c r="A6883" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6883" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6883" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6883" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6884">
+      <c r="A6884" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6884" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6884" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6884" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6885">
+      <c r="A6885" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6885" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6885" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6885" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6886">
+      <c r="A6886" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6886" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6886" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6886" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6887">
+      <c r="A6887" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6887" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6887" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6887" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6888">
+      <c r="A6888" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6888" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6888" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6888" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6889">
+      <c r="A6889" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6889" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6889" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6889" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6890">
+      <c r="A6890" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6890" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6890" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6890" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6891">
+      <c r="A6891" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6891" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6891" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6891" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6892">
+      <c r="A6892" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6892" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6892" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6892" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6893">
+      <c r="A6893" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6893" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6893" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6893" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6894">
+      <c r="A6894" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6894" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6894" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6894" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6895">
+      <c r="A6895" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6895" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6895" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6895" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6896">
+      <c r="A6896" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6896" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6896" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6896" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6897">
+      <c r="A6897" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6897" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6897" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6897" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6898">
+      <c r="A6898" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6898" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6898" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6898" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6899">
+      <c r="A6899" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6899" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6899" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6899" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6900">
+      <c r="A6900" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6900" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6900" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6900" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6901">
+      <c r="A6901" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6901" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6901" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6901" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6902">
+      <c r="A6902" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6902" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6902" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6902" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6903">
+      <c r="A6903" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6903" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6903" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6903" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6904">
+      <c r="A6904" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6904" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6904" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6904" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6905">
+      <c r="A6905" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6905" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6905" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6905" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6906">
+      <c r="A6906" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6906" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6906" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6906" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6907">
+      <c r="A6907" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6907" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6907" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6907" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6908">
+      <c r="A6908" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6908" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6908" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6908" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6909">
+      <c r="A6909" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6909" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6909" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6909" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6910">
+      <c r="A6910" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6910" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6910" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6910" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6911">
+      <c r="A6911" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6911" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6911" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6911" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6912">
+      <c r="A6912" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6912" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6912" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6912" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6913">
+      <c r="A6913" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6913" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6913" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6913" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6914">
+      <c r="A6914" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6914" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6914" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6914" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6915">
+      <c r="A6915" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6915" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6915" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6915" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6916">
+      <c r="A6916" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6916" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6916" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6916" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6917">
+      <c r="A6917" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6917" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6917" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6917" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6918">
+      <c r="A6918" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6918" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6918" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6918" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6919">
+      <c r="A6919" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6919" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6919" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6919" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6920">
+      <c r="A6920" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6920" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6920" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6920" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6921">
+      <c r="A6921" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6921" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6921" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6921" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6922">
+      <c r="A6922" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6922" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6922" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6922" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6923">
+      <c r="A6923" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6923" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6923" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6923" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6924">
+      <c r="A6924" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6924" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6924" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6924" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6925">
+      <c r="A6925" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6925" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6925" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6925" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6926">
+      <c r="A6926" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6926" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6926" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6926" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6927">
+      <c r="A6927" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6927" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6927" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6927" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6928">
+      <c r="A6928" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6928" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6928" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6928" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6929">
+      <c r="A6929" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6929" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6929" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6929" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6930">
+      <c r="A6930" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6930" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6930" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6930" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6931">
+      <c r="A6931" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6931" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6931" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6931" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6932">
+      <c r="A6932" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6932" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6932" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6932" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6933">
+      <c r="A6933" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6933" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6933" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6933" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6934">
+      <c r="A6934" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6934" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6934" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6934" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6935">
+      <c r="A6935" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6935" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6935" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6935" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6936">
+      <c r="A6936" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6936" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6936" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6936" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6937">
+      <c r="A6937" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6937" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6937" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6937" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6938">
+      <c r="A6938" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6938" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6938" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6938" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6939">
+      <c r="A6939" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6939" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6939" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6939" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6940">
+      <c r="A6940" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6940" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6940" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6940" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6941">
+      <c r="A6941" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6941" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6941" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6941" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6942">
+      <c r="A6942" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6942" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6942" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6942" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6943">
+      <c r="A6943" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6943" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6943" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6943" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6944">
+      <c r="A6944" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6944" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6944" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6944" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6945">
+      <c r="A6945" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6945" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6945" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6945" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6946">
+      <c r="A6946" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6946" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6946" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6946" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6947">
+      <c r="A6947" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6947" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6947" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6947" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6948">
+      <c r="A6948" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6948" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6948" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6948" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6949">
+      <c r="A6949" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6949" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6949" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6949" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6950">
+      <c r="A6950" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6950" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6950" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6950" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6951">
+      <c r="A6951" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6951" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6951" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6951" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6952">
+      <c r="A6952" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6952" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6952" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6952" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6953">
+      <c r="A6953" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6953" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6953" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6953" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6954">
+      <c r="A6954" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6954" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6954" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6954" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6955">
+      <c r="A6955" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6955" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6955" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6955" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6956">
+      <c r="A6956" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6956" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6956" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6956" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6957">
+      <c r="A6957" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6957" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6957" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6957" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6958">
+      <c r="A6958" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6958" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6958" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6958" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6959">
+      <c r="A6959" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6959" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6959" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6959" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6960">
+      <c r="A6960" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6960" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6960" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6960" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6961">
+      <c r="A6961" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6961" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6961" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6961" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6962">
+      <c r="A6962" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6962" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6962" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6962" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6963">
+      <c r="A6963" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6963" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6963" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6963" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6964">
+      <c r="A6964" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6964" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6964" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6964" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6965">
+      <c r="A6965" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6965" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6965" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6965" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6966">
+      <c r="A6966" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6966" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6966" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6966" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6967">
+      <c r="A6967" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6967" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6967" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6967" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6968">
+      <c r="A6968" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6968" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6968" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6968" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6969">
+      <c r="A6969" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6969" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6969" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6969" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6970">
+      <c r="A6970" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6970" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6970" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6970" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6971">
+      <c r="A6971" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6971" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6971" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6971" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6972">
+      <c r="A6972" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6972" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6972" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6972" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6973">
+      <c r="A6973" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6973" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6973" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6973" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6974">
+      <c r="A6974" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6974" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6974" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6974" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6975">
+      <c r="A6975" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6975" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6975" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6975" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6976">
+      <c r="A6976" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6976" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6976" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6976" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6977">
+      <c r="A6977" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6977" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6977" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6977" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6978">
+      <c r="A6978" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6978" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6978" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6978" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6979">
+      <c r="A6979" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6979" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6979" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6979" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6980">
+      <c r="A6980" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6980" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6980" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6980" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6981">
+      <c r="A6981" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6981" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6981" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6981" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6982">
+      <c r="A6982" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6982" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6982" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6982" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6983">
+      <c r="A6983" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6983" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6983" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6983" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6984">
+      <c r="A6984" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6984" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6984" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6984" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6985">
+      <c r="A6985" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6985" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6985" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6985" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6986">
+      <c r="A6986" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6986" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6986" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6986" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6987">
+      <c r="A6987" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6987" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6987" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6987" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6988">
+      <c r="A6988" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6988" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6988" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6988" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6989">
+      <c r="A6989" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6989" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6989" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6989" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6990">
+      <c r="A6990" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6990" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6990" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6990" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6991">
+      <c r="A6991" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6991" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6991" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6991" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6992">
+      <c r="A6992" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6992" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6992" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6992" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6993">
+      <c r="A6993" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6993" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6993" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6993" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6994">
+      <c r="A6994" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6994" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6994" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6994" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6995">
+      <c r="A6995" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6995" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6995" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6995" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6996">
+      <c r="A6996" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6996" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6996" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6996" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6997">
+      <c r="A6997" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6997" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6997" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6997" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6998">
+      <c r="A6998" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6998" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6998" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6998" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6999">
+      <c r="A6999" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6999" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6999" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6999" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7000">
+      <c r="A7000" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7000" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7000" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7000" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7001">
+      <c r="A7001" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7001" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7001" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7001" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7002">
+      <c r="A7002" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7002" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7002" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7002" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7003">
+      <c r="A7003" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7003" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7003" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7003" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7004">
+      <c r="A7004" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7004" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7004" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7004" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7005">
+      <c r="A7005" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7005" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7005" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7005" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7006">
+      <c r="A7006" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7006" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7006" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7006" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7007">
+      <c r="A7007" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7007" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7007" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7007" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7008">
+      <c r="A7008" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7008" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7008" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7008" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7009">
+      <c r="A7009" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7009" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7009" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7009" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7010">
+      <c r="A7010" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7010" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7010" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7010" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7011">
+      <c r="A7011" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7011" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7011" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7011" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7012">
+      <c r="A7012" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7012" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7012" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7012" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7013">
+      <c r="A7013" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7013" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7013" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7013" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7014">
+      <c r="A7014" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7014" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7014" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7014" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7015">
+      <c r="A7015" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7015" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7015" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7015" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7016">
+      <c r="A7016" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7016" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7016" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7016" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7017">
+      <c r="A7017" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7017" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7017" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7017" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7018">
+      <c r="A7018" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7018" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7018" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7018" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7019">
+      <c r="A7019" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7019" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7019" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7019" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7020">
+      <c r="A7020" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7020" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7020" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7020" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7021">
+      <c r="A7021" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7021" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7021" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7021" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7022">
+      <c r="A7022" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7022" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7022" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7022" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7023">
+      <c r="A7023" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7023" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7023" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7023" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7024">
+      <c r="A7024" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7024" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7024" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7024" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7025">
+      <c r="A7025" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7025" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7025" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7025" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7026">
+      <c r="A7026" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7026" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7026" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7026" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7027">
+      <c r="A7027" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7027" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7027" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7027" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7028">
+      <c r="A7028" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7028" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7028" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7028" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7029">
+      <c r="A7029" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7029" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7029" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7029" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7030">
+      <c r="A7030" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7030" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7030" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7030" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7031">
+      <c r="A7031" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7031" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7031" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7031" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7032">
+      <c r="A7032" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7032" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7032" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7032" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7033">
+      <c r="A7033" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7033" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7033" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7033" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7034">
+      <c r="A7034" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7034" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7034" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7034" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7035">
+      <c r="A7035" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7035" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7035" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7035" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7036">
+      <c r="A7036" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7036" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7036" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7036" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7037">
+      <c r="A7037" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7037" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7037" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7037" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
